--- a/earlywarning-pom/earlywarning-config/src/baf-instances/58_Inst_Variable_ISPRO.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-instances/58_Inst_Variable_ISPRO.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\client-intesa\earlywarning-pom\earlywarning-config\src\baf-instances\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dati\DEV\GitRepoAAAP\client-intesa\earlywarning-pom\earlywarning-config\src\baf-instances\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'r Variable_DataType'!$A$2:$F$155</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Variable!$A$2:$M$155</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Variable!$A$2:$M$156</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
   <extLst>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2351" uniqueCount="727">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2366" uniqueCount="732">
   <si>
     <t>Variable</t>
   </si>
@@ -2234,18 +2234,40 @@
   </si>
   <si>
     <t>210 - Max past due days in last year</t>
+  </si>
+  <si>
+    <t>EXPOSURE</t>
+  </si>
+  <si>
+    <t>Exposure</t>
+  </si>
+  <si>
+    <t>ISPRO_EXPOSURE</t>
+  </si>
+  <si>
+    <t>IsCustomField</t>
+  </si>
+  <si>
+    <t>ISPRO_EXPOSURE_REAL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2331,6 +2353,13 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -2351,7 +2380,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -2359,63 +2388,88 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
@@ -2516,12 +2570,18 @@
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>2066395</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>60325</xdr:rowOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>234260</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="CustomShape 1"/>
+        <xdr:cNvPr id="3" name="CustomShape 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2574,12 +2634,18 @@
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>2066395</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>60325</xdr:rowOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>234260</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="CustomShape 1"/>
+        <xdr:cNvPr id="4" name="CustomShape 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2632,12 +2698,18 @@
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>2066395</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>60325</xdr:rowOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>234260</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="CustomShape 1"/>
+        <xdr:cNvPr id="5" name="CustomShape 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2690,12 +2762,18 @@
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>2066395</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>60325</xdr:rowOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>234260</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="CustomShape 1"/>
+        <xdr:cNvPr id="6" name="CustomShape 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2748,12 +2826,18 @@
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>2066395</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>60325</xdr:rowOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>234260</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="CustomShape 1"/>
+        <xdr:cNvPr id="7" name="CustomShape 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2811,7 +2895,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1026" name="shapetype_202" hidden="1"/>
+        <xdr:cNvPr id="1026" name="shapetype_202" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noSelect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -2859,7 +2949,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="CustomShape 1"/>
+        <xdr:cNvPr id="13" name="CustomShape 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2917,7 +3013,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="CustomShape 1"/>
+        <xdr:cNvPr id="14" name="CustomShape 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2975,7 +3077,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="CustomShape 1"/>
+        <xdr:cNvPr id="15" name="CustomShape 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3033,7 +3141,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="CustomShape 1"/>
+        <xdr:cNvPr id="16" name="CustomShape 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000010000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3091,7 +3205,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="CustomShape 1"/>
+        <xdr:cNvPr id="17" name="CustomShape 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000011000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3149,7 +3269,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3074" name="shapetype_202" hidden="1"/>
+        <xdr:cNvPr id="3074" name="shapetype_202" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000020C0000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noSelect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -3443,10 +3569,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M172"/>
+  <dimension ref="A1:N173"/>
   <sheetViews>
-    <sheetView topLeftCell="A155" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D166" sqref="D166"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3465,7 +3591,7 @@
     <col min="13" max="13" width="23" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -3481,8 +3607,9 @@
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
-    </row>
-    <row r="2" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="N1" s="23"/>
+    </row>
+    <row r="2" spans="1:14" ht="30" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
@@ -3522,8 +3649,11 @@
       <c r="M2" s="5" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N2" s="23" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>11</v>
       </c>
@@ -3563,8 +3693,11 @@
       <c r="M3" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>11</v>
       </c>
@@ -3604,8 +3737,11 @@
       <c r="M4" s="4" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>11</v>
       </c>
@@ -3645,110 +3781,119 @@
       <c r="M5" s="14" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="4" t="s">
+      <c r="N5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A6" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>729</v>
+      </c>
+      <c r="C6" t="s">
+        <v>727</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>727</v>
+      </c>
+      <c r="E6" t="s">
+        <v>727</v>
+      </c>
+      <c r="F6" t="s">
+        <v>728</v>
+      </c>
+      <c r="G6" s="21">
+        <v>500</v>
+      </c>
+      <c r="H6" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="J6" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="K6" t="b">
+        <v>0</v>
+      </c>
+      <c r="L6" t="b">
+        <v>0</v>
+      </c>
+      <c r="M6" t="b">
+        <v>0</v>
+      </c>
+      <c r="N6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>506</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C7" s="4" t="s">
         <v>506</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="D7" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E7" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F7" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="G6" s="16">
+      <c r="G7" s="16">
         <v>4</v>
       </c>
-      <c r="H6" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="I6" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="J6" s="8" t="s">
+      <c r="H7" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="J7" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="K6" s="8" t="s">
+      <c r="K7" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="L6" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="M6" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="4" t="s">
+      <c r="L7" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="M7" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="N7" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>507</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C8" s="4" t="s">
         <v>507</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="D8" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E8" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F8" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="G7" s="10">
+      <c r="G8" s="10">
         <v>5</v>
-      </c>
-      <c r="H7" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="I7" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="L7" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="M7" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>508</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>508</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>355</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="G8" s="16">
-        <v>6</v>
       </c>
       <c r="H8" s="4" t="b">
         <v>0</v>
@@ -3760,7 +3905,7 @@
         <v>45</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>353</v>
+        <v>13</v>
       </c>
       <c r="L8" s="4" t="b">
         <v>0</v>
@@ -3768,28 +3913,31 @@
       <c r="M8" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N8" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="G9" s="10">
-        <v>7</v>
+        <v>205</v>
+      </c>
+      <c r="G9" s="16">
+        <v>6</v>
       </c>
       <c r="H9" s="4" t="b">
         <v>0</v>
@@ -3809,69 +3957,75 @@
       <c r="M9" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="N9" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B10" s="4" t="s">
+        <v>509</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>509</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>356</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="G10" s="10">
+        <v>7</v>
+      </c>
+      <c r="H10" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="L10" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="M10" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="N10" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>510</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C11" s="4" t="s">
         <v>510</v>
       </c>
-      <c r="D10" s="15" t="s">
+      <c r="D11" s="15" t="s">
         <v>357</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E11" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F11" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="G10" s="16">
+      <c r="G11" s="16">
         <v>8</v>
-      </c>
-      <c r="H10" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="I10" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="J10" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="K10" s="4" t="s">
-        <v>354</v>
-      </c>
-      <c r="L10" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="M10" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="75" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>511</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>511</v>
-      </c>
-      <c r="D11" s="15" t="s">
-        <v>358</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="G11" s="10">
-        <v>9</v>
       </c>
       <c r="H11" s="4" t="b">
         <v>0</v>
@@ -3891,28 +4045,31 @@
       <c r="M11" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="N11" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="G12" s="16">
-        <v>10</v>
+        <v>208</v>
+      </c>
+      <c r="G12" s="10">
+        <v>9</v>
       </c>
       <c r="H12" s="4" t="b">
         <v>0</v>
@@ -3932,192 +4089,207 @@
       <c r="M12" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="N12" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B13" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>359</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="G13" s="16">
+        <v>10</v>
+      </c>
+      <c r="H13" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="L13" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="M13" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="N13" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>513</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C14" s="4" t="s">
         <v>513</v>
       </c>
-      <c r="D13" s="15" t="s">
+      <c r="D14" s="15" t="s">
         <v>360</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E14" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="F14" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="G13" s="10">
-        <v>11</v>
-      </c>
-      <c r="H13" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="I13" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="J13" s="4" t="s">
+      <c r="G14" s="10">
+        <v>11</v>
+      </c>
+      <c r="H14" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="J14" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="K13" s="4" t="s">
+      <c r="K14" s="4" t="s">
         <v>353</v>
       </c>
-      <c r="L13" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="M13" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14" s="4" t="s">
+      <c r="L14" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="M14" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="N14" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>514</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C15" s="4" t="s">
         <v>514</v>
       </c>
-      <c r="D14" s="15" t="s">
+      <c r="D15" s="15" t="s">
         <v>361</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E15" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="F15" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="G14" s="16">
+      <c r="G15" s="16">
         <v>12</v>
       </c>
-      <c r="H14" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="I14" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="J14" s="4" t="s">
+      <c r="H15" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="J15" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="K14" s="4" t="s">
+      <c r="K15" s="4" t="s">
         <v>354</v>
       </c>
-      <c r="L14" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="M14" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" s="4" t="s">
+      <c r="L15" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="M15" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="N15" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>515</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C16" s="4" t="s">
         <v>515</v>
       </c>
-      <c r="D15" s="15" t="s">
+      <c r="D16" s="15" t="s">
         <v>362</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E16" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="F15" s="4" t="s">
+      <c r="F16" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="G15" s="10">
+      <c r="G16" s="10">
         <v>13</v>
       </c>
-      <c r="H15" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="I15" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="J15" s="4" t="s">
+      <c r="H16" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="J16" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="K15" s="4" t="s">
+      <c r="K16" s="4" t="s">
         <v>353</v>
       </c>
-      <c r="L15" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="M15" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B16" s="4" t="s">
+      <c r="L16" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="M16" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="N16" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" s="4" t="s">
         <v>516</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C17" s="4" t="s">
         <v>516</v>
       </c>
-      <c r="D16" s="15" t="s">
+      <c r="D17" s="15" t="s">
         <v>363</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E17" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="F17" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="G16" s="16">
+      <c r="G17" s="16">
         <v>14</v>
-      </c>
-      <c r="H16" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="I16" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="J16" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="K16" s="4" t="s">
-        <v>354</v>
-      </c>
-      <c r="L16" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="M16" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>517</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>517</v>
-      </c>
-      <c r="D17" s="15" t="s">
-        <v>364</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="G17" s="10">
-        <v>15</v>
       </c>
       <c r="H17" s="4" t="b">
         <v>0</v>
@@ -4137,69 +4309,75 @@
       <c r="M17" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="N17" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B18" s="4" t="s">
+        <v>517</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>517</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>364</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="G18" s="10">
+        <v>15</v>
+      </c>
+      <c r="H18" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I18" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K18" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="L18" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="M18" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="N18" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" s="4" t="s">
         <v>518</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C19" s="4" t="s">
         <v>518</v>
       </c>
-      <c r="D18" s="15" t="s">
+      <c r="D19" s="15" t="s">
         <v>365</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="E19" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="F18" s="4" t="s">
+      <c r="F19" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="G18" s="16">
+      <c r="G19" s="16">
         <v>16</v>
-      </c>
-      <c r="H18" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="I18" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="J18" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="K18" s="4" t="s">
-        <v>353</v>
-      </c>
-      <c r="L18" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="M18" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>519</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>519</v>
-      </c>
-      <c r="D19" s="15" t="s">
-        <v>366</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="G19" s="10">
-        <v>17</v>
       </c>
       <c r="H19" s="4" t="b">
         <v>0</v>
@@ -4219,28 +4397,31 @@
       <c r="M19" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="N19" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="G20" s="16">
-        <v>18</v>
+        <v>216</v>
+      </c>
+      <c r="G20" s="10">
+        <v>17</v>
       </c>
       <c r="H20" s="4" t="b">
         <v>0</v>
@@ -4260,28 +4441,31 @@
       <c r="M20" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="N20" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D21" s="15" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="G21" s="10">
-        <v>19</v>
+        <v>217</v>
+      </c>
+      <c r="G21" s="16">
+        <v>18</v>
       </c>
       <c r="H21" s="4" t="b">
         <v>0</v>
@@ -4301,28 +4485,31 @@
       <c r="M21" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N21" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="D22" s="15" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="G22" s="16">
-        <v>20</v>
+        <v>218</v>
+      </c>
+      <c r="G22" s="10">
+        <v>19</v>
       </c>
       <c r="H22" s="4" t="b">
         <v>0</v>
@@ -4342,28 +4529,31 @@
       <c r="M22" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N22" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="D23" s="15" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="G23" s="10">
-        <v>21</v>
+        <v>219</v>
+      </c>
+      <c r="G23" s="16">
+        <v>20</v>
       </c>
       <c r="H23" s="4" t="b">
         <v>0</v>
@@ -4383,28 +4573,31 @@
       <c r="M23" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N23" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D24" s="15" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="G24" s="16">
-        <v>22</v>
+        <v>220</v>
+      </c>
+      <c r="G24" s="10">
+        <v>21</v>
       </c>
       <c r="H24" s="4" t="b">
         <v>0</v>
@@ -4424,28 +4617,31 @@
       <c r="M24" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N24" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="D25" s="15" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="G25" s="10">
-        <v>23</v>
+        <v>221</v>
+      </c>
+      <c r="G25" s="16">
+        <v>22</v>
       </c>
       <c r="H25" s="4" t="b">
         <v>0</v>
@@ -4465,28 +4661,31 @@
       <c r="M25" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N25" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="D26" s="15" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="G26" s="16">
-        <v>24</v>
+        <v>222</v>
+      </c>
+      <c r="G26" s="10">
+        <v>23</v>
       </c>
       <c r="H26" s="4" t="b">
         <v>0</v>
@@ -4506,28 +4705,31 @@
       <c r="M26" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="N26" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D27" s="15" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="G27" s="10">
-        <v>25</v>
+        <v>223</v>
+      </c>
+      <c r="G27" s="16">
+        <v>24</v>
       </c>
       <c r="H27" s="4" t="b">
         <v>0</v>
@@ -4547,28 +4749,31 @@
       <c r="M27" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="N27" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="D28" s="15" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="G28" s="16">
-        <v>26</v>
+        <v>224</v>
+      </c>
+      <c r="G28" s="10">
+        <v>25</v>
       </c>
       <c r="H28" s="4" t="b">
         <v>0</v>
@@ -4588,28 +4793,31 @@
       <c r="M28" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="N28" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="D29" s="15" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="G29" s="10">
-        <v>27</v>
+        <v>225</v>
+      </c>
+      <c r="G29" s="16">
+        <v>26</v>
       </c>
       <c r="H29" s="4" t="b">
         <v>0</v>
@@ -4629,28 +4837,31 @@
       <c r="M29" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N29" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="D30" s="15" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="G30" s="16">
-        <v>28</v>
+        <v>226</v>
+      </c>
+      <c r="G30" s="10">
+        <v>27</v>
       </c>
       <c r="H30" s="4" t="b">
         <v>0</v>
@@ -4670,110 +4881,119 @@
       <c r="M30" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="N30" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B31" s="4" t="s">
+        <v>530</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>530</v>
+      </c>
+      <c r="D31" s="15" t="s">
+        <v>377</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="G31" s="16">
+        <v>28</v>
+      </c>
+      <c r="H31" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I31" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="J31" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="K31" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="L31" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="M31" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="N31" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B32" s="4" t="s">
         <v>531</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="C32" s="4" t="s">
         <v>531</v>
       </c>
-      <c r="D31" s="15" t="s">
+      <c r="D32" s="15" t="s">
         <v>378</v>
       </c>
-      <c r="E31" s="4" t="s">
+      <c r="E32" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="F31" s="4" t="s">
+      <c r="F32" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="G31" s="10">
+      <c r="G32" s="10">
         <v>29</v>
       </c>
-      <c r="H31" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="I31" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="J31" s="4" t="s">
+      <c r="H32" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I32" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="J32" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="K31" s="4" t="s">
+      <c r="K32" s="4" t="s">
         <v>354</v>
       </c>
-      <c r="L31" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="M31" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B32" s="4" t="s">
+      <c r="L32" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="M32" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="N32" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A33" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B33" s="4" t="s">
         <v>532</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="C33" s="4" t="s">
         <v>532</v>
       </c>
-      <c r="D32" s="15" t="s">
+      <c r="D33" s="15" t="s">
         <v>379</v>
       </c>
-      <c r="E32" s="4" t="s">
+      <c r="E33" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="F32" s="4" t="s">
+      <c r="F33" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="G32" s="16">
+      <c r="G33" s="16">
         <v>30</v>
-      </c>
-      <c r="H32" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="I32" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="J32" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="K32" s="4" t="s">
-        <v>353</v>
-      </c>
-      <c r="L32" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="M32" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>533</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>533</v>
-      </c>
-      <c r="D33" s="15" t="s">
-        <v>380</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="F33" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="G33" s="10">
-        <v>31</v>
       </c>
       <c r="H33" s="4" t="b">
         <v>0</v>
@@ -4793,28 +5013,31 @@
       <c r="M33" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N33" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="D34" s="15" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="G34" s="16">
-        <v>32</v>
+        <v>230</v>
+      </c>
+      <c r="G34" s="10">
+        <v>31</v>
       </c>
       <c r="H34" s="4" t="b">
         <v>0</v>
@@ -4834,28 +5057,31 @@
       <c r="M34" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="N34" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D35" s="15" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="G35" s="10">
-        <v>33</v>
+        <v>231</v>
+      </c>
+      <c r="G35" s="16">
+        <v>32</v>
       </c>
       <c r="H35" s="4" t="b">
         <v>0</v>
@@ -4875,110 +5101,119 @@
       <c r="M35" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N35" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B36" s="4" t="s">
+        <v>535</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>535</v>
+      </c>
+      <c r="D36" s="15" t="s">
+        <v>382</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="G36" s="10">
+        <v>33</v>
+      </c>
+      <c r="H36" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I36" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="J36" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="K36" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="L36" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="M36" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="N36" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A37" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B37" s="4" t="s">
         <v>536</v>
       </c>
-      <c r="C36" s="4" t="s">
+      <c r="C37" s="4" t="s">
         <v>536</v>
       </c>
-      <c r="D36" s="15" t="s">
+      <c r="D37" s="15" t="s">
         <v>383</v>
       </c>
-      <c r="E36" s="4" t="s">
+      <c r="E37" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="F36" s="4" t="s">
+      <c r="F37" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="G36" s="16">
+      <c r="G37" s="16">
         <v>34</v>
       </c>
-      <c r="H36" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="I36" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="J36" s="4" t="s">
+      <c r="H37" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I37" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="J37" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="K36" s="4" t="s">
+      <c r="K37" s="4" t="s">
         <v>354</v>
       </c>
-      <c r="L36" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="M36" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A37" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B37" s="4" t="s">
+      <c r="L37" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="M37" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="N37" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A38" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B38" s="4" t="s">
         <v>537</v>
       </c>
-      <c r="C37" s="4" t="s">
+      <c r="C38" s="4" t="s">
         <v>537</v>
       </c>
-      <c r="D37" s="15" t="s">
+      <c r="D38" s="15" t="s">
         <v>384</v>
       </c>
-      <c r="E37" s="4" t="s">
+      <c r="E38" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="F37" s="4" t="s">
+      <c r="F38" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="G37" s="10">
+      <c r="G38" s="10">
         <v>35</v>
-      </c>
-      <c r="H37" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="I37" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="J37" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="K37" s="4" t="s">
-        <v>353</v>
-      </c>
-      <c r="L37" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="M37" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A38" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>538</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>538</v>
-      </c>
-      <c r="D38" s="15" t="s">
-        <v>385</v>
-      </c>
-      <c r="E38" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="F38" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="G38" s="16">
-        <v>36</v>
       </c>
       <c r="H38" s="4" t="b">
         <v>0</v>
@@ -4998,28 +5233,31 @@
       <c r="M38" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="N38" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="D39" s="15" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="G39" s="10">
-        <v>37</v>
+        <v>235</v>
+      </c>
+      <c r="G39" s="16">
+        <v>36</v>
       </c>
       <c r="H39" s="4" t="b">
         <v>0</v>
@@ -5039,192 +5277,207 @@
       <c r="M39" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N39" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B40" s="4" t="s">
+        <v>539</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>539</v>
+      </c>
+      <c r="D40" s="15" t="s">
+        <v>386</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="G40" s="10">
+        <v>37</v>
+      </c>
+      <c r="H40" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I40" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="J40" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="K40" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="L40" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="M40" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="N40" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A41" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B41" s="4" t="s">
         <v>540</v>
       </c>
-      <c r="C40" s="4" t="s">
+      <c r="C41" s="4" t="s">
         <v>540</v>
       </c>
-      <c r="D40" s="15" t="s">
+      <c r="D41" s="15" t="s">
         <v>387</v>
       </c>
-      <c r="E40" s="4" t="s">
+      <c r="E41" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="F40" s="4" t="s">
+      <c r="F41" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="G40" s="16">
+      <c r="G41" s="16">
         <v>38</v>
       </c>
-      <c r="H40" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="I40" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="J40" s="4" t="s">
+      <c r="H41" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I41" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="J41" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="K40" s="4" t="s">
+      <c r="K41" s="4" t="s">
         <v>354</v>
       </c>
-      <c r="L40" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="M40" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A41" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B41" s="4" t="s">
+      <c r="L41" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="M41" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="N41" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A42" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B42" s="4" t="s">
         <v>541</v>
       </c>
-      <c r="C41" s="4" t="s">
+      <c r="C42" s="4" t="s">
         <v>541</v>
       </c>
-      <c r="D41" s="15" t="s">
+      <c r="D42" s="15" t="s">
         <v>388</v>
       </c>
-      <c r="E41" s="4" t="s">
+      <c r="E42" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="F41" s="4" t="s">
+      <c r="F42" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="G41" s="10">
+      <c r="G42" s="10">
         <v>39</v>
       </c>
-      <c r="H41" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="I41" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="J41" s="4" t="s">
+      <c r="H42" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I42" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="J42" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="K41" s="4" t="s">
+      <c r="K42" s="4" t="s">
         <v>353</v>
       </c>
-      <c r="L41" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="M41" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A42" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B42" s="4" t="s">
+      <c r="L42" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="M42" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="N42" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A43" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B43" s="4" t="s">
         <v>542</v>
       </c>
-      <c r="C42" s="4" t="s">
+      <c r="C43" s="4" t="s">
         <v>542</v>
       </c>
-      <c r="D42" s="15" t="s">
+      <c r="D43" s="15" t="s">
         <v>389</v>
       </c>
-      <c r="E42" s="4" t="s">
+      <c r="E43" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F42" s="4" t="s">
+      <c r="F43" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="G42" s="16">
+      <c r="G43" s="16">
         <v>40</v>
       </c>
-      <c r="H42" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="I42" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="J42" s="4" t="s">
+      <c r="H43" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I43" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="J43" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="K42" s="4" t="s">
+      <c r="K43" s="4" t="s">
         <v>354</v>
       </c>
-      <c r="L42" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="M42" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A43" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B43" s="4" t="s">
+      <c r="L43" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="M43" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="N43" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A44" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B44" s="4" t="s">
         <v>543</v>
       </c>
-      <c r="C43" s="4" t="s">
+      <c r="C44" s="4" t="s">
         <v>543</v>
       </c>
-      <c r="D43" s="15" t="s">
+      <c r="D44" s="15" t="s">
         <v>390</v>
       </c>
-      <c r="E43" s="4" t="s">
+      <c r="E44" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="F43" s="4" t="s">
+      <c r="F44" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="G43" s="10">
+      <c r="G44" s="10">
         <v>41</v>
-      </c>
-      <c r="H43" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="I43" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="J43" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="K43" s="4" t="s">
-        <v>353</v>
-      </c>
-      <c r="L43" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="M43" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" ht="90" x14ac:dyDescent="0.25">
-      <c r="A44" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>544</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>544</v>
-      </c>
-      <c r="D44" s="15" t="s">
-        <v>391</v>
-      </c>
-      <c r="E44" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="F44" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="G44" s="16">
-        <v>42</v>
       </c>
       <c r="H44" s="4" t="b">
         <v>0</v>
@@ -5244,28 +5497,31 @@
       <c r="M44" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N44" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="D45" s="15" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="G45" s="10">
-        <v>43</v>
+        <v>241</v>
+      </c>
+      <c r="G45" s="16">
+        <v>42</v>
       </c>
       <c r="H45" s="4" t="b">
         <v>0</v>
@@ -5285,28 +5541,31 @@
       <c r="M45" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="N45" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="D46" s="15" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="G46" s="16">
-        <v>44</v>
+        <v>242</v>
+      </c>
+      <c r="G46" s="10">
+        <v>43</v>
       </c>
       <c r="H46" s="4" t="b">
         <v>0</v>
@@ -5326,28 +5585,31 @@
       <c r="M46" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="N46" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D47" s="15" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="G47" s="10">
-        <v>45</v>
+        <v>243</v>
+      </c>
+      <c r="G47" s="16">
+        <v>44</v>
       </c>
       <c r="H47" s="4" t="b">
         <v>0</v>
@@ -5367,69 +5629,75 @@
       <c r="M47" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="N47" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B48" s="4" t="s">
+        <v>547</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>547</v>
+      </c>
+      <c r="D48" s="15" t="s">
+        <v>394</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="G48" s="10">
+        <v>45</v>
+      </c>
+      <c r="H48" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I48" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="J48" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="K48" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="L48" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="M48" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="N48" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A49" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B49" s="4" t="s">
         <v>548</v>
       </c>
-      <c r="C48" s="4" t="s">
+      <c r="C49" s="4" t="s">
         <v>548</v>
       </c>
-      <c r="D48" s="15" t="s">
+      <c r="D49" s="15" t="s">
         <v>395</v>
       </c>
-      <c r="E48" s="4" t="s">
+      <c r="E49" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="F48" s="4" t="s">
+      <c r="F49" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="G48" s="16">
+      <c r="G49" s="16">
         <v>46</v>
-      </c>
-      <c r="H48" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="I48" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="J48" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="K48" s="4" t="s">
-        <v>354</v>
-      </c>
-      <c r="L48" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="M48" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A49" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>549</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>549</v>
-      </c>
-      <c r="D49" s="15" t="s">
-        <v>396</v>
-      </c>
-      <c r="E49" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="F49" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="G49" s="10">
-        <v>47</v>
       </c>
       <c r="H49" s="4" t="b">
         <v>0</v>
@@ -5449,28 +5717,31 @@
       <c r="M49" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="N49" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="D50" s="15" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="G50" s="16">
-        <v>48</v>
+        <v>246</v>
+      </c>
+      <c r="G50" s="10">
+        <v>47</v>
       </c>
       <c r="H50" s="4" t="b">
         <v>0</v>
@@ -5490,28 +5761,31 @@
       <c r="M50" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="N50" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="D51" s="15" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="G51" s="10">
-        <v>49</v>
+        <v>247</v>
+      </c>
+      <c r="G51" s="16">
+        <v>48</v>
       </c>
       <c r="H51" s="4" t="b">
         <v>0</v>
@@ -5531,28 +5805,31 @@
       <c r="M51" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+      <c r="N51" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="D52" s="15" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="G52" s="16">
-        <v>50</v>
+        <v>248</v>
+      </c>
+      <c r="G52" s="10">
+        <v>49</v>
       </c>
       <c r="H52" s="4" t="b">
         <v>0</v>
@@ -5572,28 +5849,31 @@
       <c r="M52" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+      <c r="N52" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A53" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="D53" s="15" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="G53" s="10">
-        <v>51</v>
+        <v>249</v>
+      </c>
+      <c r="G53" s="16">
+        <v>50</v>
       </c>
       <c r="H53" s="4" t="b">
         <v>0</v>
@@ -5613,28 +5893,31 @@
       <c r="M53" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:13" ht="105" x14ac:dyDescent="0.25">
+      <c r="N53" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A54" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="D54" s="15" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="G54" s="16">
-        <v>52</v>
+        <v>250</v>
+      </c>
+      <c r="G54" s="10">
+        <v>51</v>
       </c>
       <c r="H54" s="4" t="b">
         <v>0</v>
@@ -5654,28 +5937,31 @@
       <c r="M54" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:13" ht="90" x14ac:dyDescent="0.25">
+      <c r="N54" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" ht="75" x14ac:dyDescent="0.25">
       <c r="A55" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="D55" s="15" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="G55" s="10">
-        <v>53</v>
+        <v>251</v>
+      </c>
+      <c r="G55" s="16">
+        <v>52</v>
       </c>
       <c r="H55" s="4" t="b">
         <v>0</v>
@@ -5695,28 +5981,31 @@
       <c r="M55" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:13" ht="105" x14ac:dyDescent="0.25">
+      <c r="N55" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="D56" s="15" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="G56" s="16">
-        <v>54</v>
+        <v>252</v>
+      </c>
+      <c r="G56" s="10">
+        <v>53</v>
       </c>
       <c r="H56" s="4" t="b">
         <v>0</v>
@@ -5736,28 +6025,31 @@
       <c r="M56" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:13" ht="120" x14ac:dyDescent="0.25">
+      <c r="N56" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" ht="75" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="D57" s="15" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="G57" s="10">
-        <v>55</v>
+        <v>253</v>
+      </c>
+      <c r="G57" s="16">
+        <v>54</v>
       </c>
       <c r="H57" s="4" t="b">
         <v>0</v>
@@ -5777,28 +6069,31 @@
       <c r="M57" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:13" ht="105" x14ac:dyDescent="0.25">
+      <c r="N57" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" ht="75" x14ac:dyDescent="0.25">
       <c r="A58" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D58" s="15" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="G58" s="16">
-        <v>56</v>
+        <v>254</v>
+      </c>
+      <c r="G58" s="10">
+        <v>55</v>
       </c>
       <c r="H58" s="4" t="b">
         <v>0</v>
@@ -5818,28 +6113,31 @@
       <c r="M58" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N58" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" ht="75" x14ac:dyDescent="0.25">
       <c r="A59" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D59" s="15" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="G59" s="10">
-        <v>57</v>
+        <v>255</v>
+      </c>
+      <c r="G59" s="16">
+        <v>56</v>
       </c>
       <c r="H59" s="4" t="b">
         <v>0</v>
@@ -5859,28 +6157,31 @@
       <c r="M59" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N59" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D60" s="15" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>257</v>
-      </c>
-      <c r="G60" s="16">
-        <v>58</v>
+        <v>256</v>
+      </c>
+      <c r="G60" s="10">
+        <v>57</v>
       </c>
       <c r="H60" s="4" t="b">
         <v>0</v>
@@ -5900,28 +6201,31 @@
       <c r="M60" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="N60" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D61" s="15" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="G61" s="10">
-        <v>59</v>
+        <v>257</v>
+      </c>
+      <c r="G61" s="16">
+        <v>58</v>
       </c>
       <c r="H61" s="4" t="b">
         <v>0</v>
@@ -5941,28 +6245,31 @@
       <c r="M61" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N61" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="D62" s="15" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="G62" s="16">
-        <v>60</v>
+        <v>258</v>
+      </c>
+      <c r="G62" s="10">
+        <v>59</v>
       </c>
       <c r="H62" s="4" t="b">
         <v>0</v>
@@ -5982,28 +6289,31 @@
       <c r="M62" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="N62" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="D63" s="15" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="G63" s="10">
-        <v>61</v>
+        <v>259</v>
+      </c>
+      <c r="G63" s="16">
+        <v>60</v>
       </c>
       <c r="H63" s="4" t="b">
         <v>0</v>
@@ -6023,28 +6333,31 @@
       <c r="M63" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N63" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="D64" s="15" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>261</v>
-      </c>
-      <c r="G64" s="16">
-        <v>62</v>
+        <v>260</v>
+      </c>
+      <c r="G64" s="10">
+        <v>61</v>
       </c>
       <c r="H64" s="4" t="b">
         <v>0</v>
@@ -6064,28 +6377,31 @@
       <c r="M64" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="N64" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="D65" s="15" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="G65" s="10">
-        <v>63</v>
+        <v>261</v>
+      </c>
+      <c r="G65" s="16">
+        <v>62</v>
       </c>
       <c r="H65" s="4" t="b">
         <v>0</v>
@@ -6105,28 +6421,31 @@
       <c r="M65" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="N65" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A66" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="D66" s="15" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>263</v>
-      </c>
-      <c r="G66" s="16">
-        <v>64</v>
+        <v>262</v>
+      </c>
+      <c r="G66" s="10">
+        <v>63</v>
       </c>
       <c r="H66" s="4" t="b">
         <v>0</v>
@@ -6146,28 +6465,31 @@
       <c r="M66" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="N66" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A67" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="D67" s="15" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="G67" s="10">
-        <v>65</v>
+        <v>263</v>
+      </c>
+      <c r="G67" s="16">
+        <v>64</v>
       </c>
       <c r="H67" s="4" t="b">
         <v>0</v>
@@ -6187,28 +6509,31 @@
       <c r="M67" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="N67" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="D68" s="15" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="G68" s="16">
-        <v>66</v>
+        <v>264</v>
+      </c>
+      <c r="G68" s="10">
+        <v>65</v>
       </c>
       <c r="H68" s="4" t="b">
         <v>0</v>
@@ -6228,28 +6553,31 @@
       <c r="M68" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="N68" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="D69" s="15" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="G69" s="10">
-        <v>67</v>
+        <v>265</v>
+      </c>
+      <c r="G69" s="16">
+        <v>66</v>
       </c>
       <c r="H69" s="4" t="b">
         <v>0</v>
@@ -6269,28 +6597,31 @@
       <c r="M69" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="N69" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A70" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="D70" s="15" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F70" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="G70" s="16">
-        <v>68</v>
+        <v>266</v>
+      </c>
+      <c r="G70" s="10">
+        <v>67</v>
       </c>
       <c r="H70" s="4" t="b">
         <v>0</v>
@@ -6310,28 +6641,31 @@
       <c r="M70" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N70" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="D71" s="15" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="G71" s="10">
-        <v>69</v>
+        <v>267</v>
+      </c>
+      <c r="G71" s="16">
+        <v>68</v>
       </c>
       <c r="H71" s="4" t="b">
         <v>0</v>
@@ -6351,28 +6685,31 @@
       <c r="M71" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N71" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D72" s="15" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="G72" s="16">
-        <v>70</v>
+        <v>268</v>
+      </c>
+      <c r="G72" s="10">
+        <v>69</v>
       </c>
       <c r="H72" s="4" t="b">
         <v>0</v>
@@ -6392,28 +6729,31 @@
       <c r="M72" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="N72" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D73" s="15" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F73" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="G73" s="10">
-        <v>71</v>
+        <v>269</v>
+      </c>
+      <c r="G73" s="16">
+        <v>70</v>
       </c>
       <c r="H73" s="4" t="b">
         <v>0</v>
@@ -6433,28 +6773,31 @@
       <c r="M73" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="N73" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="D74" s="15" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="G74" s="16">
-        <v>72</v>
+        <v>270</v>
+      </c>
+      <c r="G74" s="10">
+        <v>71</v>
       </c>
       <c r="H74" s="4" t="b">
         <v>0</v>
@@ -6474,28 +6817,31 @@
       <c r="M74" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N74" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A75" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D75" s="15" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="G75" s="10">
-        <v>73</v>
+        <v>271</v>
+      </c>
+      <c r="G75" s="16">
+        <v>72</v>
       </c>
       <c r="H75" s="4" t="b">
         <v>0</v>
@@ -6515,28 +6861,31 @@
       <c r="M75" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="N75" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A76" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D76" s="15" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="G76" s="16">
-        <v>74</v>
+        <v>272</v>
+      </c>
+      <c r="G76" s="10">
+        <v>73</v>
       </c>
       <c r="H76" s="4" t="b">
         <v>0</v>
@@ -6556,28 +6905,31 @@
       <c r="M76" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="N76" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A77" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="D77" s="15" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F77" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="G77" s="10">
-        <v>75</v>
+        <v>273</v>
+      </c>
+      <c r="G77" s="16">
+        <v>74</v>
       </c>
       <c r="H77" s="4" t="b">
         <v>0</v>
@@ -6597,28 +6949,31 @@
       <c r="M77" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N77" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A78" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D78" s="15" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F78" s="4" t="s">
-        <v>275</v>
-      </c>
-      <c r="G78" s="16">
-        <v>76</v>
+        <v>274</v>
+      </c>
+      <c r="G78" s="10">
+        <v>75</v>
       </c>
       <c r="H78" s="4" t="b">
         <v>0</v>
@@ -6638,28 +6993,31 @@
       <c r="M78" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="N78" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A79" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="D79" s="15" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F79" s="4" t="s">
-        <v>276</v>
-      </c>
-      <c r="G79" s="10">
-        <v>77</v>
+        <v>275</v>
+      </c>
+      <c r="G79" s="16">
+        <v>76</v>
       </c>
       <c r="H79" s="4" t="b">
         <v>0</v>
@@ -6679,28 +7037,31 @@
       <c r="M79" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="N79" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A80" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="D80" s="15" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F80" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="G80" s="16">
-        <v>78</v>
+        <v>276</v>
+      </c>
+      <c r="G80" s="10">
+        <v>77</v>
       </c>
       <c r="H80" s="4" t="b">
         <v>0</v>
@@ -6720,28 +7081,31 @@
       <c r="M80" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="N80" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A81" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="D81" s="15" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F81" s="4" t="s">
-        <v>278</v>
-      </c>
-      <c r="G81" s="10">
-        <v>79</v>
+        <v>277</v>
+      </c>
+      <c r="G81" s="16">
+        <v>78</v>
       </c>
       <c r="H81" s="4" t="b">
         <v>0</v>
@@ -6761,28 +7125,31 @@
       <c r="M81" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="N81" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A82" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="D82" s="15" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F82" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="G82" s="16">
-        <v>80</v>
+        <v>278</v>
+      </c>
+      <c r="G82" s="10">
+        <v>79</v>
       </c>
       <c r="H82" s="4" t="b">
         <v>0</v>
@@ -6802,28 +7169,31 @@
       <c r="M82" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="N82" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D83" s="15" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F83" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="G83" s="10">
-        <v>81</v>
+        <v>279</v>
+      </c>
+      <c r="G83" s="16">
+        <v>80</v>
       </c>
       <c r="H83" s="4" t="b">
         <v>0</v>
@@ -6843,28 +7213,31 @@
       <c r="M83" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N83" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A84" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="D84" s="15" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F84" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="G84" s="16">
-        <v>82</v>
+        <v>280</v>
+      </c>
+      <c r="G84" s="10">
+        <v>81</v>
       </c>
       <c r="H84" s="4" t="b">
         <v>0</v>
@@ -6884,28 +7257,31 @@
       <c r="M84" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N84" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D85" s="15" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F85" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="G85" s="10">
-        <v>83</v>
+        <v>281</v>
+      </c>
+      <c r="G85" s="16">
+        <v>82</v>
       </c>
       <c r="H85" s="4" t="b">
         <v>0</v>
@@ -6925,28 +7301,31 @@
       <c r="M85" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N85" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A86" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="D86" s="15" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F86" s="4" t="s">
-        <v>283</v>
-      </c>
-      <c r="G86" s="16">
-        <v>84</v>
+        <v>282</v>
+      </c>
+      <c r="G86" s="10">
+        <v>83</v>
       </c>
       <c r="H86" s="4" t="b">
         <v>0</v>
@@ -6966,28 +7345,31 @@
       <c r="M86" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="N86" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A87" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="D87" s="15" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F87" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="G87" s="10">
-        <v>85</v>
+        <v>283</v>
+      </c>
+      <c r="G87" s="16">
+        <v>84</v>
       </c>
       <c r="H87" s="4" t="b">
         <v>0</v>
@@ -7007,28 +7389,31 @@
       <c r="M87" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="N87" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A88" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D88" s="15" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F88" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="G88" s="16">
-        <v>86</v>
+        <v>284</v>
+      </c>
+      <c r="G88" s="10">
+        <v>85</v>
       </c>
       <c r="H88" s="4" t="b">
         <v>0</v>
@@ -7048,28 +7433,31 @@
       <c r="M88" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N88" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A89" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="D89" s="15" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E89" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F89" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="G89" s="10">
-        <v>87</v>
+        <v>285</v>
+      </c>
+      <c r="G89" s="16">
+        <v>86</v>
       </c>
       <c r="H89" s="4" t="b">
         <v>0</v>
@@ -7089,28 +7477,31 @@
       <c r="M89" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N89" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A90" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="D90" s="15" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E90" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F90" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="G90" s="16">
-        <v>88</v>
+        <v>286</v>
+      </c>
+      <c r="G90" s="10">
+        <v>87</v>
       </c>
       <c r="H90" s="4" t="b">
         <v>0</v>
@@ -7130,28 +7521,31 @@
       <c r="M90" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="N90" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A91" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="D91" s="15" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E91" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F91" s="4" t="s">
-        <v>288</v>
-      </c>
-      <c r="G91" s="10">
-        <v>89</v>
+        <v>287</v>
+      </c>
+      <c r="G91" s="16">
+        <v>88</v>
       </c>
       <c r="H91" s="4" t="b">
         <v>0</v>
@@ -7171,28 +7565,31 @@
       <c r="M91" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N91" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A92" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D92" s="15" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E92" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F92" s="4" t="s">
-        <v>289</v>
-      </c>
-      <c r="G92" s="16">
-        <v>90</v>
+        <v>288</v>
+      </c>
+      <c r="G92" s="10">
+        <v>89</v>
       </c>
       <c r="H92" s="4" t="b">
         <v>0</v>
@@ -7212,28 +7609,31 @@
       <c r="M92" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="N92" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A93" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D93" s="15" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E93" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F93" s="4" t="s">
-        <v>290</v>
-      </c>
-      <c r="G93" s="10">
-        <v>91</v>
+        <v>289</v>
+      </c>
+      <c r="G93" s="16">
+        <v>90</v>
       </c>
       <c r="H93" s="4" t="b">
         <v>0</v>
@@ -7253,28 +7653,31 @@
       <c r="M93" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N93" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D94" s="15" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E94" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F94" s="4" t="s">
-        <v>291</v>
-      </c>
-      <c r="G94" s="16">
-        <v>92</v>
+        <v>290</v>
+      </c>
+      <c r="G94" s="10">
+        <v>91</v>
       </c>
       <c r="H94" s="4" t="b">
         <v>0</v>
@@ -7294,28 +7697,31 @@
       <c r="M94" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N94" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="D95" s="15" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E95" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F95" s="4" t="s">
-        <v>292</v>
-      </c>
-      <c r="G95" s="10">
-        <v>93</v>
+        <v>291</v>
+      </c>
+      <c r="G95" s="16">
+        <v>92</v>
       </c>
       <c r="H95" s="4" t="b">
         <v>0</v>
@@ -7335,28 +7741,31 @@
       <c r="M95" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="N95" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A96" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="D96" s="15" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E96" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F96" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="G96" s="16">
-        <v>94</v>
+        <v>292</v>
+      </c>
+      <c r="G96" s="10">
+        <v>93</v>
       </c>
       <c r="H96" s="4" t="b">
         <v>0</v>
@@ -7376,28 +7785,31 @@
       <c r="M96" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N96" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A97" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="D97" s="15" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E97" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F97" s="4" t="s">
-        <v>294</v>
-      </c>
-      <c r="G97" s="10">
-        <v>95</v>
+        <v>293</v>
+      </c>
+      <c r="G97" s="16">
+        <v>94</v>
       </c>
       <c r="H97" s="4" t="b">
         <v>0</v>
@@ -7417,28 +7829,31 @@
       <c r="M97" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N97" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A98" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="D98" s="15" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E98" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F98" s="4" t="s">
-        <v>295</v>
-      </c>
-      <c r="G98" s="16">
-        <v>96</v>
+        <v>294</v>
+      </c>
+      <c r="G98" s="10">
+        <v>95</v>
       </c>
       <c r="H98" s="4" t="b">
         <v>0</v>
@@ -7458,28 +7873,31 @@
       <c r="M98" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="N98" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A99" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="D99" s="15" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E99" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F99" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="G99" s="10">
-        <v>97</v>
+        <v>295</v>
+      </c>
+      <c r="G99" s="16">
+        <v>96</v>
       </c>
       <c r="H99" s="4" t="b">
         <v>0</v>
@@ -7499,28 +7917,31 @@
       <c r="M99" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="N99" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A100" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="D100" s="15" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E100" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F100" s="4" t="s">
-        <v>297</v>
-      </c>
-      <c r="G100" s="16">
-        <v>98</v>
+        <v>296</v>
+      </c>
+      <c r="G100" s="10">
+        <v>97</v>
       </c>
       <c r="H100" s="4" t="b">
         <v>0</v>
@@ -7540,28 +7961,31 @@
       <c r="M100" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="N100" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A101" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="D101" s="15" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E101" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F101" s="4" t="s">
-        <v>298</v>
-      </c>
-      <c r="G101" s="10">
-        <v>99</v>
+        <v>297</v>
+      </c>
+      <c r="G101" s="16">
+        <v>98</v>
       </c>
       <c r="H101" s="4" t="b">
         <v>0</v>
@@ -7581,28 +8005,31 @@
       <c r="M101" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N101" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A102" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D102" s="15" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E102" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F102" s="4" t="s">
-        <v>299</v>
-      </c>
-      <c r="G102" s="16">
-        <v>100</v>
+        <v>298</v>
+      </c>
+      <c r="G102" s="10">
+        <v>99</v>
       </c>
       <c r="H102" s="4" t="b">
         <v>0</v>
@@ -7622,28 +8049,31 @@
       <c r="M102" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="N102" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A103" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="D103" s="15" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E103" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F103" s="4" t="s">
-        <v>300</v>
-      </c>
-      <c r="G103" s="10">
-        <v>101</v>
+        <v>299</v>
+      </c>
+      <c r="G103" s="16">
+        <v>100</v>
       </c>
       <c r="H103" s="4" t="b">
         <v>0</v>
@@ -7663,28 +8093,31 @@
       <c r="M103" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="N103" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A104" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D104" s="15" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E104" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F104" s="4" t="s">
-        <v>301</v>
-      </c>
-      <c r="G104" s="16">
-        <v>102</v>
+        <v>300</v>
+      </c>
+      <c r="G104" s="10">
+        <v>101</v>
       </c>
       <c r="H104" s="4" t="b">
         <v>0</v>
@@ -7704,28 +8137,31 @@
       <c r="M104" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="105" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="N104" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A105" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="D105" s="15" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E105" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F105" s="4" t="s">
-        <v>302</v>
-      </c>
-      <c r="G105" s="10">
-        <v>103</v>
+        <v>301</v>
+      </c>
+      <c r="G105" s="16">
+        <v>102</v>
       </c>
       <c r="H105" s="4" t="b">
         <v>0</v>
@@ -7745,28 +8181,31 @@
       <c r="M105" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="106" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="N105" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A106" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D106" s="15" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E106" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F106" s="4" t="s">
-        <v>303</v>
-      </c>
-      <c r="G106" s="16">
-        <v>104</v>
+        <v>302</v>
+      </c>
+      <c r="G106" s="10">
+        <v>103</v>
       </c>
       <c r="H106" s="4" t="b">
         <v>0</v>
@@ -7786,28 +8225,31 @@
       <c r="M106" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N106" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A107" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="D107" s="15" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E107" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F107" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="G107" s="10">
-        <v>105</v>
+        <v>303</v>
+      </c>
+      <c r="G107" s="16">
+        <v>104</v>
       </c>
       <c r="H107" s="4" t="b">
         <v>0</v>
@@ -7827,28 +8269,31 @@
       <c r="M107" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="108" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="N107" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A108" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D108" s="15" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E108" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F108" s="4" t="s">
-        <v>305</v>
-      </c>
-      <c r="G108" s="16">
-        <v>106</v>
+        <v>304</v>
+      </c>
+      <c r="G108" s="10">
+        <v>105</v>
       </c>
       <c r="H108" s="4" t="b">
         <v>0</v>
@@ -7868,28 +8313,31 @@
       <c r="M108" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N108" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A109" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D109" s="15" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E109" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F109" s="4" t="s">
-        <v>306</v>
-      </c>
-      <c r="G109" s="10">
-        <v>107</v>
+        <v>305</v>
+      </c>
+      <c r="G109" s="16">
+        <v>106</v>
       </c>
       <c r="H109" s="4" t="b">
         <v>0</v>
@@ -7909,28 +8357,31 @@
       <c r="M109" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N109" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A110" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="D110" s="15" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E110" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F110" s="4" t="s">
-        <v>307</v>
-      </c>
-      <c r="G110" s="16">
-        <v>108</v>
+        <v>306</v>
+      </c>
+      <c r="G110" s="10">
+        <v>107</v>
       </c>
       <c r="H110" s="4" t="b">
         <v>0</v>
@@ -7950,28 +8401,31 @@
       <c r="M110" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N110" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A111" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="D111" s="15" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E111" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F111" s="4" t="s">
-        <v>308</v>
-      </c>
-      <c r="G111" s="10">
-        <v>109</v>
+        <v>307</v>
+      </c>
+      <c r="G111" s="16">
+        <v>108</v>
       </c>
       <c r="H111" s="4" t="b">
         <v>0</v>
@@ -7991,28 +8445,31 @@
       <c r="M111" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N111" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A112" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="D112" s="15" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E112" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F112" s="4" t="s">
-        <v>309</v>
-      </c>
-      <c r="G112" s="16">
-        <v>110</v>
+        <v>308</v>
+      </c>
+      <c r="G112" s="10">
+        <v>109</v>
       </c>
       <c r="H112" s="4" t="b">
         <v>0</v>
@@ -8032,28 +8489,31 @@
       <c r="M112" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="113" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="N112" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A113" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="D113" s="15" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E113" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F113" s="4" t="s">
-        <v>310</v>
-      </c>
-      <c r="G113" s="10">
-        <v>111</v>
+        <v>309</v>
+      </c>
+      <c r="G113" s="16">
+        <v>110</v>
       </c>
       <c r="H113" s="4" t="b">
         <v>0</v>
@@ -8073,28 +8533,31 @@
       <c r="M113" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N113" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A114" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="D114" s="15" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E114" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F114" s="4" t="s">
-        <v>311</v>
-      </c>
-      <c r="G114" s="16">
-        <v>112</v>
+        <v>310</v>
+      </c>
+      <c r="G114" s="10">
+        <v>111</v>
       </c>
       <c r="H114" s="4" t="b">
         <v>0</v>
@@ -8114,28 +8577,31 @@
       <c r="M114" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N114" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A115" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="D115" s="15" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E115" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F115" s="4" t="s">
-        <v>312</v>
-      </c>
-      <c r="G115" s="10">
-        <v>113</v>
+        <v>311</v>
+      </c>
+      <c r="G115" s="16">
+        <v>112</v>
       </c>
       <c r="H115" s="4" t="b">
         <v>0</v>
@@ -8155,28 +8621,31 @@
       <c r="M115" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="116" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="N115" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A116" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="D116" s="15" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E116" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F116" s="4" t="s">
-        <v>313</v>
-      </c>
-      <c r="G116" s="16">
-        <v>114</v>
+        <v>312</v>
+      </c>
+      <c r="G116" s="10">
+        <v>113</v>
       </c>
       <c r="H116" s="4" t="b">
         <v>0</v>
@@ -8196,28 +8665,31 @@
       <c r="M116" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="117" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="N116" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A117" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="D117" s="15" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E117" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F117" s="4" t="s">
-        <v>314</v>
-      </c>
-      <c r="G117" s="10">
-        <v>115</v>
+        <v>313</v>
+      </c>
+      <c r="G117" s="16">
+        <v>114</v>
       </c>
       <c r="H117" s="4" t="b">
         <v>0</v>
@@ -8237,28 +8709,31 @@
       <c r="M117" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N117" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A118" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="D118" s="15" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E118" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F118" s="4" t="s">
-        <v>315</v>
-      </c>
-      <c r="G118" s="16">
-        <v>116</v>
+        <v>314</v>
+      </c>
+      <c r="G118" s="10">
+        <v>115</v>
       </c>
       <c r="H118" s="4" t="b">
         <v>0</v>
@@ -8278,69 +8753,75 @@
       <c r="M118" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="119" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="N118" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A119" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B119" s="4" t="s">
+        <v>618</v>
+      </c>
+      <c r="C119" s="4" t="s">
+        <v>618</v>
+      </c>
+      <c r="D119" s="15" t="s">
+        <v>465</v>
+      </c>
+      <c r="E119" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="F119" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="G119" s="16">
+        <v>116</v>
+      </c>
+      <c r="H119" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I119" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="J119" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K119" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="L119" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="M119" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="N119" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A120" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B120" s="4" t="s">
         <v>619</v>
       </c>
-      <c r="C119" s="4" t="s">
+      <c r="C120" s="4" t="s">
         <v>619</v>
       </c>
-      <c r="D119" s="15" t="s">
+      <c r="D120" s="15" t="s">
         <v>466</v>
       </c>
-      <c r="E119" s="4" t="s">
+      <c r="E120" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="F119" s="4" t="s">
+      <c r="F120" s="4" t="s">
         <v>316</v>
       </c>
-      <c r="G119" s="10">
+      <c r="G120" s="10">
         <v>117</v>
-      </c>
-      <c r="H119" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="I119" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="J119" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="K119" s="4" t="s">
-        <v>353</v>
-      </c>
-      <c r="L119" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="M119" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A120" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B120" s="4" t="s">
-        <v>620</v>
-      </c>
-      <c r="C120" s="4" t="s">
-        <v>620</v>
-      </c>
-      <c r="D120" s="15" t="s">
-        <v>467</v>
-      </c>
-      <c r="E120" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="F120" s="4" t="s">
-        <v>317</v>
-      </c>
-      <c r="G120" s="16">
-        <v>118</v>
       </c>
       <c r="H120" s="4" t="b">
         <v>0</v>
@@ -8360,28 +8841,31 @@
       <c r="M120" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="121" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="N120" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A121" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="D121" s="15" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E121" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F121" s="4" t="s">
-        <v>318</v>
-      </c>
-      <c r="G121" s="10">
-        <v>119</v>
+        <v>317</v>
+      </c>
+      <c r="G121" s="16">
+        <v>118</v>
       </c>
       <c r="H121" s="4" t="b">
         <v>0</v>
@@ -8401,28 +8885,31 @@
       <c r="M121" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="122" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="N121" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A122" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="D122" s="15" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E122" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F122" s="4" t="s">
-        <v>319</v>
-      </c>
-      <c r="G122" s="16">
-        <v>120</v>
+        <v>318</v>
+      </c>
+      <c r="G122" s="10">
+        <v>119</v>
       </c>
       <c r="H122" s="4" t="b">
         <v>0</v>
@@ -8442,69 +8929,75 @@
       <c r="M122" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="123" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="N122" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A123" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B123" s="4" t="s">
+        <v>622</v>
+      </c>
+      <c r="C123" s="4" t="s">
+        <v>622</v>
+      </c>
+      <c r="D123" s="15" t="s">
+        <v>469</v>
+      </c>
+      <c r="E123" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="F123" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="G123" s="16">
+        <v>120</v>
+      </c>
+      <c r="H123" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I123" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="J123" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="K123" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="L123" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="M123" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="N123" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A124" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B124" s="4" t="s">
         <v>623</v>
       </c>
-      <c r="C123" s="4" t="s">
+      <c r="C124" s="4" t="s">
         <v>623</v>
       </c>
-      <c r="D123" s="15" t="s">
+      <c r="D124" s="15" t="s">
         <v>470</v>
       </c>
-      <c r="E123" s="4" t="s">
+      <c r="E124" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="F123" s="4" t="s">
+      <c r="F124" s="4" t="s">
         <v>320</v>
       </c>
-      <c r="G123" s="10">
+      <c r="G124" s="10">
         <v>121</v>
-      </c>
-      <c r="H123" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="I123" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="J123" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="K123" s="4" t="s">
-        <v>354</v>
-      </c>
-      <c r="L123" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="M123" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A124" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B124" s="4" t="s">
-        <v>624</v>
-      </c>
-      <c r="C124" s="4" t="s">
-        <v>624</v>
-      </c>
-      <c r="D124" s="15" t="s">
-        <v>471</v>
-      </c>
-      <c r="E124" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="F124" s="4" t="s">
-        <v>321</v>
-      </c>
-      <c r="G124" s="16">
-        <v>122</v>
       </c>
       <c r="H124" s="4" t="b">
         <v>0</v>
@@ -8524,28 +9017,31 @@
       <c r="M124" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="125" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="N124" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A125" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="D125" s="15" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E125" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F125" s="4" t="s">
-        <v>322</v>
-      </c>
-      <c r="G125" s="10">
-        <v>123</v>
+        <v>321</v>
+      </c>
+      <c r="G125" s="16">
+        <v>122</v>
       </c>
       <c r="H125" s="4" t="b">
         <v>0</v>
@@ -8565,28 +9061,31 @@
       <c r="M125" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="126" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="N125" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A126" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="D126" s="15" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E126" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F126" s="4" t="s">
-        <v>323</v>
-      </c>
-      <c r="G126" s="16">
-        <v>124</v>
+        <v>322</v>
+      </c>
+      <c r="G126" s="10">
+        <v>123</v>
       </c>
       <c r="H126" s="4" t="b">
         <v>0</v>
@@ -8606,28 +9105,31 @@
       <c r="M126" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="127" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="N126" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A127" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="D127" s="15" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E127" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F127" s="4" t="s">
-        <v>324</v>
-      </c>
-      <c r="G127" s="10">
-        <v>125</v>
+        <v>323</v>
+      </c>
+      <c r="G127" s="16">
+        <v>124</v>
       </c>
       <c r="H127" s="4" t="b">
         <v>0</v>
@@ -8647,28 +9149,31 @@
       <c r="M127" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="128" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="N127" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A128" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="D128" s="15" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="E128" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F128" s="4" t="s">
-        <v>325</v>
-      </c>
-      <c r="G128" s="16">
-        <v>126</v>
+        <v>324</v>
+      </c>
+      <c r="G128" s="10">
+        <v>125</v>
       </c>
       <c r="H128" s="4" t="b">
         <v>0</v>
@@ -8688,28 +9193,31 @@
       <c r="M128" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="129" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="N128" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A129" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="D129" s="15" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="E129" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F129" s="4" t="s">
-        <v>326</v>
-      </c>
-      <c r="G129" s="10">
-        <v>127</v>
+        <v>325</v>
+      </c>
+      <c r="G129" s="16">
+        <v>126</v>
       </c>
       <c r="H129" s="4" t="b">
         <v>0</v>
@@ -8729,28 +9237,31 @@
       <c r="M129" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="130" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="N129" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A130" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D130" s="15" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="E130" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F130" s="4" t="s">
-        <v>327</v>
-      </c>
-      <c r="G130" s="16">
-        <v>128</v>
+        <v>326</v>
+      </c>
+      <c r="G130" s="10">
+        <v>127</v>
       </c>
       <c r="H130" s="4" t="b">
         <v>0</v>
@@ -8770,28 +9281,31 @@
       <c r="M130" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="131" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="N130" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A131" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="D131" s="15" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="E131" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F131" s="4" t="s">
-        <v>328</v>
-      </c>
-      <c r="G131" s="10">
-        <v>129</v>
+        <v>327</v>
+      </c>
+      <c r="G131" s="16">
+        <v>128</v>
       </c>
       <c r="H131" s="4" t="b">
         <v>0</v>
@@ -8811,28 +9325,31 @@
       <c r="M131" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="132" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="N131" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A132" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="D132" s="15" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="E132" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F132" s="4" t="s">
-        <v>329</v>
-      </c>
-      <c r="G132" s="16">
-        <v>130</v>
+        <v>328</v>
+      </c>
+      <c r="G132" s="10">
+        <v>129</v>
       </c>
       <c r="H132" s="4" t="b">
         <v>0</v>
@@ -8852,28 +9369,31 @@
       <c r="M132" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="133" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="N132" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A133" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="D133" s="15" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E133" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F133" s="4" t="s">
-        <v>330</v>
-      </c>
-      <c r="G133" s="10">
-        <v>131</v>
+        <v>329</v>
+      </c>
+      <c r="G133" s="16">
+        <v>130</v>
       </c>
       <c r="H133" s="4" t="b">
         <v>0</v>
@@ -8893,28 +9413,31 @@
       <c r="M133" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="134" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="N133" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A134" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="D134" s="15" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="E134" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F134" s="4" t="s">
-        <v>331</v>
-      </c>
-      <c r="G134" s="16">
-        <v>132</v>
+        <v>330</v>
+      </c>
+      <c r="G134" s="10">
+        <v>131</v>
       </c>
       <c r="H134" s="4" t="b">
         <v>0</v>
@@ -8934,28 +9457,31 @@
       <c r="M134" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="135" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="N134" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A135" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="D135" s="15" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="E135" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F135" s="4" t="s">
-        <v>332</v>
-      </c>
-      <c r="G135" s="10">
-        <v>133</v>
+        <v>331</v>
+      </c>
+      <c r="G135" s="16">
+        <v>132</v>
       </c>
       <c r="H135" s="4" t="b">
         <v>0</v>
@@ -8975,28 +9501,31 @@
       <c r="M135" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="136" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="N135" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A136" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="D136" s="15" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E136" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F136" s="4" t="s">
-        <v>333</v>
-      </c>
-      <c r="G136" s="16">
-        <v>134</v>
+        <v>332</v>
+      </c>
+      <c r="G136" s="10">
+        <v>133</v>
       </c>
       <c r="H136" s="4" t="b">
         <v>0</v>
@@ -9016,28 +9545,31 @@
       <c r="M136" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="137" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="N136" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A137" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="D137" s="15" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="E137" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F137" s="4" t="s">
-        <v>334</v>
-      </c>
-      <c r="G137" s="10">
-        <v>135</v>
+        <v>333</v>
+      </c>
+      <c r="G137" s="16">
+        <v>134</v>
       </c>
       <c r="H137" s="4" t="b">
         <v>0</v>
@@ -9057,28 +9589,31 @@
       <c r="M137" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="138" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="N137" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A138" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="D138" s="15" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="E138" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F138" s="4" t="s">
-        <v>335</v>
-      </c>
-      <c r="G138" s="16">
-        <v>136</v>
+        <v>334</v>
+      </c>
+      <c r="G138" s="10">
+        <v>135</v>
       </c>
       <c r="H138" s="4" t="b">
         <v>0</v>
@@ -9098,28 +9633,31 @@
       <c r="M138" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="139" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="N138" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A139" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="D139" s="15" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="E139" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F139" s="4" t="s">
-        <v>336</v>
-      </c>
-      <c r="G139" s="10">
-        <v>137</v>
+        <v>335</v>
+      </c>
+      <c r="G139" s="16">
+        <v>136</v>
       </c>
       <c r="H139" s="4" t="b">
         <v>0</v>
@@ -9139,28 +9677,31 @@
       <c r="M139" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="140" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="N139" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A140" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="D140" s="15" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="E140" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F140" s="4" t="s">
-        <v>337</v>
-      </c>
-      <c r="G140" s="16">
-        <v>138</v>
+        <v>336</v>
+      </c>
+      <c r="G140" s="10">
+        <v>137</v>
       </c>
       <c r="H140" s="4" t="b">
         <v>0</v>
@@ -9180,28 +9721,31 @@
       <c r="M140" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="141" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="N140" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A141" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="D141" s="15" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="E141" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F141" s="4" t="s">
-        <v>338</v>
-      </c>
-      <c r="G141" s="10">
-        <v>139</v>
+        <v>337</v>
+      </c>
+      <c r="G141" s="16">
+        <v>138</v>
       </c>
       <c r="H141" s="4" t="b">
         <v>0</v>
@@ -9221,28 +9765,31 @@
       <c r="M141" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="142" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="N141" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A142" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="C142" s="4" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="D142" s="15" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="E142" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F142" s="4" t="s">
-        <v>339</v>
-      </c>
-      <c r="G142" s="16">
-        <v>140</v>
+        <v>338</v>
+      </c>
+      <c r="G142" s="10">
+        <v>139</v>
       </c>
       <c r="H142" s="4" t="b">
         <v>0</v>
@@ -9262,28 +9809,31 @@
       <c r="M142" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="143" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="N142" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A143" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D143" s="15" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="E143" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F143" s="4" t="s">
-        <v>340</v>
-      </c>
-      <c r="G143" s="10">
-        <v>141</v>
+        <v>339</v>
+      </c>
+      <c r="G143" s="16">
+        <v>140</v>
       </c>
       <c r="H143" s="4" t="b">
         <v>0</v>
@@ -9303,28 +9853,31 @@
       <c r="M143" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="144" spans="1:13" ht="90" x14ac:dyDescent="0.25">
+      <c r="N143" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A144" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D144" s="15" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="E144" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F144" s="4" t="s">
-        <v>341</v>
-      </c>
-      <c r="G144" s="16">
-        <v>142</v>
+        <v>340</v>
+      </c>
+      <c r="G144" s="10">
+        <v>141</v>
       </c>
       <c r="H144" s="4" t="b">
         <v>0</v>
@@ -9344,28 +9897,31 @@
       <c r="M144" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="145" spans="1:13" ht="90" x14ac:dyDescent="0.25">
+      <c r="N144" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="A145" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="D145" s="15" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="E145" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F145" s="4" t="s">
-        <v>342</v>
-      </c>
-      <c r="G145" s="10">
-        <v>143</v>
+        <v>341</v>
+      </c>
+      <c r="G145" s="16">
+        <v>142</v>
       </c>
       <c r="H145" s="4" t="b">
         <v>0</v>
@@ -9385,28 +9941,31 @@
       <c r="M145" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="146" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+      <c r="N145" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="A146" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="D146" s="15" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E146" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F146" s="4" t="s">
-        <v>343</v>
-      </c>
-      <c r="G146" s="16">
-        <v>144</v>
+        <v>342</v>
+      </c>
+      <c r="G146" s="10">
+        <v>143</v>
       </c>
       <c r="H146" s="4" t="b">
         <v>0</v>
@@ -9426,28 +9985,31 @@
       <c r="M146" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="147" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="N146" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="A147" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="D147" s="15" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E147" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F147" s="4" t="s">
-        <v>344</v>
-      </c>
-      <c r="G147" s="10">
-        <v>145</v>
+        <v>343</v>
+      </c>
+      <c r="G147" s="16">
+        <v>144</v>
       </c>
       <c r="H147" s="4" t="b">
         <v>0</v>
@@ -9467,28 +10029,31 @@
       <c r="M147" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="148" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="N147" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A148" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="D148" s="15" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E148" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F148" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="G148" s="16">
-        <v>146</v>
+        <v>344</v>
+      </c>
+      <c r="G148" s="10">
+        <v>145</v>
       </c>
       <c r="H148" s="4" t="b">
         <v>0</v>
@@ -9508,69 +10073,75 @@
       <c r="M148" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N148" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A149" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B149" s="4" t="s">
+        <v>648</v>
+      </c>
+      <c r="C149" s="4" t="s">
+        <v>648</v>
+      </c>
+      <c r="D149" s="15" t="s">
+        <v>495</v>
+      </c>
+      <c r="E149" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="F149" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="G149" s="16">
+        <v>146</v>
+      </c>
+      <c r="H149" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I149" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="J149" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K149" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="L149" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="M149" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="N149" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A150" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B150" s="4" t="s">
         <v>649</v>
       </c>
-      <c r="C149" s="4" t="s">
+      <c r="C150" s="4" t="s">
         <v>649</v>
       </c>
-      <c r="D149" s="15" t="s">
+      <c r="D150" s="15" t="s">
         <v>496</v>
       </c>
-      <c r="E149" s="4" t="s">
+      <c r="E150" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="F149" s="4" t="s">
+      <c r="F150" s="4" t="s">
         <v>346</v>
       </c>
-      <c r="G149" s="10">
+      <c r="G150" s="10">
         <v>147</v>
-      </c>
-      <c r="H149" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="I149" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="J149" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="K149" s="4" t="s">
-        <v>353</v>
-      </c>
-      <c r="L149" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="M149" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A150" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B150" s="4" t="s">
-        <v>650</v>
-      </c>
-      <c r="C150" s="4" t="s">
-        <v>650</v>
-      </c>
-      <c r="D150" s="15" t="s">
-        <v>497</v>
-      </c>
-      <c r="E150" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="F150" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="G150" s="16">
-        <v>148</v>
       </c>
       <c r="H150" s="4" t="b">
         <v>0</v>
@@ -9590,28 +10161,31 @@
       <c r="M150" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="151" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="N150" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A151" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="D151" s="15" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E151" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F151" s="4" t="s">
-        <v>348</v>
-      </c>
-      <c r="G151" s="10">
-        <v>149</v>
+        <v>347</v>
+      </c>
+      <c r="G151" s="16">
+        <v>148</v>
       </c>
       <c r="H151" s="4" t="b">
         <v>0</v>
@@ -9631,28 +10205,31 @@
       <c r="M151" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="152" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="N151" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A152" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="C152" s="4" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="D152" s="15" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="E152" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F152" s="4" t="s">
-        <v>349</v>
-      </c>
-      <c r="G152" s="16">
-        <v>150</v>
+        <v>348</v>
+      </c>
+      <c r="G152" s="10">
+        <v>149</v>
       </c>
       <c r="H152" s="4" t="b">
         <v>0</v>
@@ -9672,28 +10249,31 @@
       <c r="M152" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="153" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="N152" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A153" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="D153" s="15" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="E153" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F153" s="4" t="s">
-        <v>350</v>
-      </c>
-      <c r="G153" s="10">
-        <v>151</v>
+        <v>349</v>
+      </c>
+      <c r="G153" s="16">
+        <v>150</v>
       </c>
       <c r="H153" s="4" t="b">
         <v>0</v>
@@ -9713,28 +10293,31 @@
       <c r="M153" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="154" spans="1:13" ht="165" x14ac:dyDescent="0.25">
+      <c r="N153" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A154" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="C154" s="4" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D154" s="15" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E154" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F154" s="4" t="s">
-        <v>351</v>
-      </c>
-      <c r="G154" s="16">
-        <v>152</v>
+        <v>350</v>
+      </c>
+      <c r="G154" s="10">
+        <v>151</v>
       </c>
       <c r="H154" s="4" t="b">
         <v>0</v>
@@ -9754,28 +10337,31 @@
       <c r="M154" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="155" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="N154" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:14" ht="120" x14ac:dyDescent="0.25">
       <c r="A155" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="C155" s="4" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="D155" s="15" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E155" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F155" s="4" t="s">
-        <v>352</v>
-      </c>
-      <c r="G155" s="10">
-        <v>153</v>
+        <v>351</v>
+      </c>
+      <c r="G155" s="16">
+        <v>152</v>
       </c>
       <c r="H155" s="4" t="b">
         <v>0</v>
@@ -9795,28 +10381,31 @@
       <c r="M155" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="156" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="N155" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A156" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="D156" s="15" t="s">
-        <v>662</v>
+        <v>502</v>
       </c>
       <c r="E156" s="4" t="s">
-        <v>666</v>
+        <v>204</v>
       </c>
       <c r="F156" s="4" t="s">
-        <v>663</v>
+        <v>352</v>
       </c>
       <c r="G156" s="10">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H156" s="4" t="b">
         <v>0</v>
@@ -9836,110 +10425,119 @@
       <c r="M156" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N156" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A157" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B157" s="4" t="s">
+        <v>659</v>
+      </c>
+      <c r="C157" s="4" t="s">
+        <v>659</v>
+      </c>
+      <c r="D157" s="15" t="s">
+        <v>662</v>
+      </c>
+      <c r="E157" s="4" t="s">
+        <v>666</v>
+      </c>
+      <c r="F157" s="4" t="s">
+        <v>663</v>
+      </c>
+      <c r="G157" s="10">
+        <v>154</v>
+      </c>
+      <c r="H157" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I157" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="J157" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="K157" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="L157" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="M157" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="N157" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A158" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B158" s="4" t="s">
         <v>660</v>
       </c>
-      <c r="C157" s="4" t="s">
+      <c r="C158" s="4" t="s">
         <v>660</v>
       </c>
-      <c r="D157" s="15" t="s">
+      <c r="D158" s="15" t="s">
         <v>664</v>
       </c>
-      <c r="E157" s="4" t="s">
+      <c r="E158" s="4" t="s">
         <v>661</v>
       </c>
-      <c r="F157" s="4" t="s">
+      <c r="F158" s="4" t="s">
         <v>665</v>
       </c>
-      <c r="G157" s="10">
+      <c r="G158" s="10">
         <v>155</v>
       </c>
-      <c r="H157" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="I157" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="J157" s="4" t="s">
+      <c r="H158" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I158" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="J158" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="K157" s="4" t="s">
+      <c r="K158" s="4" t="s">
         <v>354</v>
       </c>
-      <c r="L157" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="M157" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A158" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B158" s="4" t="s">
+      <c r="L158" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="M158" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="N158" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A159" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B159" s="4" t="s">
         <v>667</v>
       </c>
-      <c r="C158" s="4" t="s">
+      <c r="C159" s="4" t="s">
         <v>667</v>
       </c>
-      <c r="D158" s="15" t="s">
+      <c r="D159" s="15" t="s">
         <v>673</v>
       </c>
-      <c r="E158" s="4" t="s">
+      <c r="E159" s="4" t="s">
         <v>668</v>
       </c>
-      <c r="F158" s="4" t="s">
+      <c r="F159" s="4" t="s">
         <v>674</v>
       </c>
-      <c r="G158" s="10">
+      <c r="G159" s="10">
         <v>156</v>
-      </c>
-      <c r="H158" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="I158" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="J158" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="K158" s="4" t="s">
-        <v>353</v>
-      </c>
-      <c r="L158" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="M158" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A159" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B159" s="4" t="s">
-        <v>669</v>
-      </c>
-      <c r="C159" s="4" t="s">
-        <v>669</v>
-      </c>
-      <c r="D159" s="15" t="s">
-        <v>675</v>
-      </c>
-      <c r="E159" s="4" t="s">
-        <v>670</v>
-      </c>
-      <c r="F159" s="4" t="s">
-        <v>676</v>
-      </c>
-      <c r="G159" s="10">
-        <v>157</v>
       </c>
       <c r="H159" s="4" t="b">
         <v>0</v>
@@ -9959,28 +10557,31 @@
       <c r="M159" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="160" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="N159" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A160" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="C160" s="4" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="D160" s="15" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="E160" s="4" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="F160" s="4" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="G160" s="10">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H160" s="4" t="b">
         <v>0</v>
@@ -10000,151 +10601,163 @@
       <c r="M160" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="161" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="N160" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A161" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B161" s="4" t="s">
+        <v>671</v>
+      </c>
+      <c r="C161" s="4" t="s">
+        <v>671</v>
+      </c>
+      <c r="D161" s="15" t="s">
+        <v>677</v>
+      </c>
+      <c r="E161" s="4" t="s">
+        <v>672</v>
+      </c>
+      <c r="F161" s="4" t="s">
+        <v>678</v>
+      </c>
+      <c r="G161" s="10">
+        <v>158</v>
+      </c>
+      <c r="H161" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I161" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="J161" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="K161" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="L161" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="M161" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="N161" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A162" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B162" s="4" t="s">
         <v>679</v>
       </c>
-      <c r="C161" s="4" t="s">
+      <c r="C162" s="4" t="s">
         <v>679</v>
       </c>
-      <c r="D161" s="15" t="s">
+      <c r="D162" s="15" t="s">
         <v>681</v>
       </c>
-      <c r="E161" s="4" t="s">
+      <c r="E162" s="4" t="s">
         <v>680</v>
       </c>
-      <c r="F161" s="4" t="s">
+      <c r="F162" s="4" t="s">
         <v>682</v>
       </c>
-      <c r="G161" s="10">
+      <c r="G162" s="10">
         <v>159</v>
       </c>
-      <c r="H161" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="I161" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="J161" s="4" t="s">
+      <c r="H162" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I162" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="J162" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="K161" s="4" t="s">
+      <c r="K162" s="4" t="s">
         <v>354</v>
       </c>
-      <c r="L161" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="M161" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A162" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B162" s="4" t="s">
+      <c r="L162" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="M162" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="N162" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A163" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B163" s="4" t="s">
         <v>683</v>
       </c>
-      <c r="C162" s="4" t="s">
+      <c r="C163" s="4" t="s">
         <v>683</v>
       </c>
-      <c r="D162" s="15" t="s">
+      <c r="D163" s="15" t="s">
         <v>685</v>
       </c>
-      <c r="E162" s="4" t="s">
+      <c r="E163" s="4" t="s">
         <v>684</v>
       </c>
-      <c r="F162" s="4" t="s">
+      <c r="F163" s="4" t="s">
         <v>686</v>
       </c>
-      <c r="G162" s="10">
+      <c r="G163" s="10">
         <v>160</v>
       </c>
-      <c r="H162" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="I162" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="J162" s="4" t="s">
+      <c r="H163" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I163" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="J163" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="K162" s="4" t="s">
+      <c r="K163" s="4" t="s">
         <v>353</v>
       </c>
-      <c r="L162" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="M162" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="163" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A163" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B163" s="4" t="s">
+      <c r="L163" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="M163" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="N163" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="A164" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B164" s="4" t="s">
         <v>687</v>
       </c>
-      <c r="C163" s="4" t="s">
+      <c r="C164" s="4" t="s">
         <v>687</v>
       </c>
-      <c r="D163" s="15" t="s">
+      <c r="D164" s="15" t="s">
         <v>707</v>
       </c>
-      <c r="E163" s="4" t="s">
+      <c r="E164" s="4" t="s">
         <v>688</v>
       </c>
-      <c r="F163" s="4" t="s">
+      <c r="F164" s="4" t="s">
         <v>708</v>
       </c>
-      <c r="G163" s="10">
+      <c r="G164" s="10">
         <v>161</v>
-      </c>
-      <c r="H163" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="I163" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="J163" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="K163" s="4" t="s">
-        <v>354</v>
-      </c>
-      <c r="L163" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="M163" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="164" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A164" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B164" s="4" t="s">
-        <v>689</v>
-      </c>
-      <c r="C164" s="4" t="s">
-        <v>689</v>
-      </c>
-      <c r="D164" s="15" t="s">
-        <v>709</v>
-      </c>
-      <c r="E164" s="4" t="s">
-        <v>690</v>
-      </c>
-      <c r="F164" s="4" t="s">
-        <v>710</v>
-      </c>
-      <c r="G164" s="10">
-        <v>162</v>
       </c>
       <c r="H164" s="4" t="b">
         <v>0</v>
@@ -10164,28 +10777,31 @@
       <c r="M164" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="165" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="N164" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A165" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="C165" s="4" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="D165" s="15" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="E165" s="4" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="F165" s="4" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="G165" s="10">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H165" s="4" t="b">
         <v>0</v>
@@ -10205,28 +10821,31 @@
       <c r="M165" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="166" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="N165" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="A166" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="C166" s="4" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="D166" s="15" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="E166" s="4" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="F166" s="4" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="G166" s="10">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H166" s="4" t="b">
         <v>0</v>
@@ -10246,28 +10865,31 @@
       <c r="M166" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="167" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="N166" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="A167" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B167" s="4" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="C167" s="4" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="D167" s="15" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="E167" s="4" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="F167" s="4" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="G167" s="10">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H167" s="4" t="b">
         <v>0</v>
@@ -10287,28 +10909,31 @@
       <c r="M167" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="168" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="N167" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="A168" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B168" s="4" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="C168" s="4" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="D168" s="15" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="E168" s="4" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="F168" s="4" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="G168" s="10">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H168" s="4" t="b">
         <v>0</v>
@@ -10328,28 +10953,31 @@
       <c r="M168" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="169" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="N168" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A169" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B169" s="4" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="C169" s="4" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="D169" s="15" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="E169" s="4" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="F169" s="4" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="G169" s="10">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H169" s="4" t="b">
         <v>0</v>
@@ -10369,28 +10997,31 @@
       <c r="M169" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="170" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="N169" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A170" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B170" s="4" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="C170" s="4" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="D170" s="15" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="E170" s="4" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="F170" s="4" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="G170" s="10">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H170" s="4" t="b">
         <v>0</v>
@@ -10410,28 +11041,31 @@
       <c r="M170" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N170" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A171" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B171" s="4" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="C171" s="4" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="D171" s="15" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="E171" s="4" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="F171" s="4" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="G171" s="10">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H171" s="4" t="b">
         <v>0</v>
@@ -10451,28 +11085,31 @@
       <c r="M171" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N171" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A172" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B172" s="4" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="C172" s="4" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="D172" s="15" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="E172" s="4" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="F172" s="4" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="G172" s="10">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H172" s="4" t="b">
         <v>0</v>
@@ -10492,9 +11129,56 @@
       <c r="M172" s="4" t="b">
         <v>0</v>
       </c>
+      <c r="N172" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A173" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B173" s="4" t="s">
+        <v>705</v>
+      </c>
+      <c r="C173" s="4" t="s">
+        <v>705</v>
+      </c>
+      <c r="D173" s="15" t="s">
+        <v>725</v>
+      </c>
+      <c r="E173" s="4" t="s">
+        <v>706</v>
+      </c>
+      <c r="F173" s="4" t="s">
+        <v>726</v>
+      </c>
+      <c r="G173" s="10">
+        <v>170</v>
+      </c>
+      <c r="H173" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I173" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="J173" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K173" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="L173" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="M173" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="N173" s="4" t="b">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:M155"/>
+  <autoFilter ref="A2:M156"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -10503,11 +11187,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F171"/>
+  <dimension ref="A1:F172"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A149" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C161" sqref="C161"/>
+      <selection pane="bottomLeft" activeCell="D178" sqref="D178"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13419,6 +14103,23 @@
         <v>705</v>
       </c>
       <c r="F171" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>11</v>
+      </c>
+      <c r="B172" s="24" t="s">
+        <v>731</v>
+      </c>
+      <c r="C172" s="24" t="s">
+        <v>731</v>
+      </c>
+      <c r="E172" s="24" t="s">
+        <v>729</v>
+      </c>
+      <c r="F172" t="s">
         <v>22</v>
       </c>
     </row>
